--- a/src/main/resources/templet/download/commision/commision.xlsx
+++ b/src/main/resources/templet/download/commision/commision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12915" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>计划员</t>
+  </si>
   <si>
     <t>工作订单号</t>
   </si>
@@ -40,6 +46,15 @@
   </si>
   <si>
     <t>制造商</t>
+  </si>
+  <si>
+    <t>订单编码</t>
+  </si>
+  <si>
+    <t>采购时间</t>
+  </si>
+  <si>
+    <t>采购交货</t>
   </si>
   <si>
     <t>入库数量</t>
@@ -70,37 +85,62 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -109,12 +149,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,38 +463,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -475,13 +525,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -493,11 +543,26 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -507,10 +572,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -520,9 +585,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>